--- a/src/main/resources/165-mall4cloud/mall4cloud-order_structure.xlsx
+++ b/src/main/resources/165-mall4cloud/mall4cloud-order_structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5074" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5074" uniqueCount="369">
   <si>
     <t>类名</t>
   </si>
@@ -700,13 +700,13 @@
     <t>getOrderByOrderId(java.lang.Long)</t>
   </si>
   <si>
-    <t>saveOrder(com.mall4j.cloud.common.order.vo.ShopCartOrderMergerVO)</t>
-  </si>
-  <si>
-    <t>submit(com.mall4j.cloud.common.order.vo.ShopCartOrderMergerVO)</t>
-  </si>
-  <si>
-    <t>getOrderItem(com.mall4j.cloud.common.order.vo.ShopCartItemVO)</t>
+    <t>saveOrder(java.lang.Long,com.mall4j.cloud.common.order.vo.ShopCartOrderMergerVO)</t>
+  </si>
+  <si>
+    <t>submit(java.lang.Long,com.mall4j.cloud.common.order.vo.ShopCartOrderMergerVO)</t>
+  </si>
+  <si>
+    <t>getOrderItem(com.mall4j.cloud.order.model.Order,com.mall4j.cloud.common.order.vo.ShopCartItemVO)</t>
   </si>
   <si>
     <t>private</t>
@@ -715,7 +715,7 @@
     <t>cancelOrderAndGetCancelOrderIds(java.util.List)</t>
   </si>
   <si>
-    <t>getOrder(com.mall4j.cloud.common.order.vo.ShopCartOrderVO)</t>
+    <t>getOrder(java.lang.Long,java.lang.Integer,com.mall4j.cloud.common.order.vo.ShopCartOrderVO)</t>
   </si>
   <si>
     <t>com.mall4j.cloud.order.service.impl.OrderAddrServiceImpl</t>
@@ -1106,18 +1106,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>saveOrder(java.lang.Long,com.mall4j.cloud.common.order.vo.ShopCartOrderMergerVO)</t>
-  </si>
-  <si>
-    <t>getOrder(java.lang.Long,java.lang.Integer,com.mall4j.cloud.common.order.vo.ShopCartOrderVO)</t>
-  </si>
-  <si>
-    <t>getOrderItem(com.mall4j.cloud.order.model.Order,com.mall4j.cloud.common.order.vo.ShopCartItemVO)</t>
-  </si>
-  <si>
-    <t>submit(java.lang.Long,com.mall4j.cloud.common.order.vo.ShopCartOrderMergerVO)</t>
   </si>
   <si>
     <t>2</t>
@@ -16376,7 +16364,7 @@
         <v>223</v>
       </c>
       <c r="B18" t="s">
-        <v>362</v>
+        <v>226</v>
       </c>
       <c r="C18" t="s">
         <v>238</v>
@@ -16393,13 +16381,13 @@
         <v>223</v>
       </c>
       <c r="B19" t="s">
-        <v>362</v>
+        <v>226</v>
       </c>
       <c r="C19" t="s">
         <v>223</v>
       </c>
       <c r="D19" t="s">
-        <v>363</v>
+        <v>231</v>
       </c>
       <c r="E19" t="s">
         <v>361</v>
@@ -16410,13 +16398,13 @@
         <v>223</v>
       </c>
       <c r="B20" t="s">
-        <v>362</v>
+        <v>226</v>
       </c>
       <c r="C20" t="s">
         <v>223</v>
       </c>
       <c r="D20" t="s">
-        <v>364</v>
+        <v>228</v>
       </c>
       <c r="E20" t="s">
         <v>361</v>
@@ -16427,7 +16415,7 @@
         <v>223</v>
       </c>
       <c r="B21" t="s">
-        <v>362</v>
+        <v>226</v>
       </c>
       <c r="C21" t="s">
         <v>209</v>
@@ -16444,7 +16432,7 @@
         <v>223</v>
       </c>
       <c r="B22" t="s">
-        <v>362</v>
+        <v>226</v>
       </c>
       <c r="C22" t="s">
         <v>193</v>
@@ -16461,7 +16449,7 @@
         <v>223</v>
       </c>
       <c r="B23" t="s">
-        <v>362</v>
+        <v>226</v>
       </c>
       <c r="C23" t="s">
         <v>209</v>
@@ -16478,7 +16466,7 @@
         <v>223</v>
       </c>
       <c r="B24" t="s">
-        <v>362</v>
+        <v>226</v>
       </c>
       <c r="C24" t="s">
         <v>201</v>
@@ -16495,7 +16483,7 @@
         <v>223</v>
       </c>
       <c r="B25" t="s">
-        <v>362</v>
+        <v>226</v>
       </c>
       <c r="C25" t="s">
         <v>239</v>
@@ -16529,13 +16517,13 @@
         <v>223</v>
       </c>
       <c r="B27" t="s">
-        <v>365</v>
+        <v>227</v>
       </c>
       <c r="C27" t="s">
         <v>223</v>
       </c>
       <c r="D27" t="s">
-        <v>362</v>
+        <v>226</v>
       </c>
       <c r="E27" t="s">
         <v>361</v>
@@ -16546,7 +16534,7 @@
         <v>223</v>
       </c>
       <c r="B28" t="s">
-        <v>365</v>
+        <v>227</v>
       </c>
       <c r="C28" t="s">
         <v>209</v>
@@ -16563,7 +16551,7 @@
         <v>223</v>
       </c>
       <c r="B29" t="s">
-        <v>365</v>
+        <v>227</v>
       </c>
       <c r="C29" t="s">
         <v>209</v>
@@ -16580,7 +16568,7 @@
         <v>223</v>
       </c>
       <c r="B30" t="s">
-        <v>365</v>
+        <v>227</v>
       </c>
       <c r="C30" t="s">
         <v>222</v>
@@ -16597,7 +16585,7 @@
         <v>223</v>
       </c>
       <c r="B31" t="s">
-        <v>365</v>
+        <v>227</v>
       </c>
       <c r="C31" t="s">
         <v>222</v>
@@ -16614,7 +16602,7 @@
         <v>223</v>
       </c>
       <c r="B32" t="s">
-        <v>365</v>
+        <v>227</v>
       </c>
       <c r="C32" t="s">
         <v>222</v>
@@ -16631,7 +16619,7 @@
         <v>223</v>
       </c>
       <c r="B33" t="s">
-        <v>365</v>
+        <v>227</v>
       </c>
       <c r="C33" t="s">
         <v>222</v>
@@ -16750,7 +16738,7 @@
         <v>223</v>
       </c>
       <c r="B40" t="s">
-        <v>364</v>
+        <v>228</v>
       </c>
       <c r="C40" t="s">
         <v>209</v>
@@ -16767,7 +16755,7 @@
         <v>223</v>
       </c>
       <c r="B41" t="s">
-        <v>364</v>
+        <v>228</v>
       </c>
       <c r="C41" t="s">
         <v>222</v>
@@ -16784,7 +16772,7 @@
         <v>223</v>
       </c>
       <c r="B42" t="s">
-        <v>364</v>
+        <v>228</v>
       </c>
       <c r="C42" t="s">
         <v>222</v>
@@ -16801,7 +16789,7 @@
         <v>223</v>
       </c>
       <c r="B43" t="s">
-        <v>364</v>
+        <v>228</v>
       </c>
       <c r="C43" t="s">
         <v>222</v>
@@ -16818,7 +16806,7 @@
         <v>223</v>
       </c>
       <c r="B44" t="s">
-        <v>364</v>
+        <v>228</v>
       </c>
       <c r="C44" t="s">
         <v>222</v>
@@ -16835,7 +16823,7 @@
         <v>223</v>
       </c>
       <c r="B45" t="s">
-        <v>364</v>
+        <v>228</v>
       </c>
       <c r="C45" t="s">
         <v>222</v>
@@ -16852,7 +16840,7 @@
         <v>223</v>
       </c>
       <c r="B46" t="s">
-        <v>364</v>
+        <v>228</v>
       </c>
       <c r="C46" t="s">
         <v>222</v>
@@ -16869,7 +16857,7 @@
         <v>223</v>
       </c>
       <c r="B47" t="s">
-        <v>364</v>
+        <v>228</v>
       </c>
       <c r="C47" t="s">
         <v>222</v>
@@ -16886,7 +16874,7 @@
         <v>223</v>
       </c>
       <c r="B48" t="s">
-        <v>364</v>
+        <v>228</v>
       </c>
       <c r="C48" t="s">
         <v>222</v>
@@ -16903,7 +16891,7 @@
         <v>223</v>
       </c>
       <c r="B49" t="s">
-        <v>364</v>
+        <v>228</v>
       </c>
       <c r="C49" t="s">
         <v>222</v>
@@ -16920,7 +16908,7 @@
         <v>223</v>
       </c>
       <c r="B50" t="s">
-        <v>364</v>
+        <v>228</v>
       </c>
       <c r="C50" t="s">
         <v>209</v>
@@ -16937,7 +16925,7 @@
         <v>223</v>
       </c>
       <c r="B51" t="s">
-        <v>364</v>
+        <v>228</v>
       </c>
       <c r="C51" t="s">
         <v>222</v>
@@ -16954,7 +16942,7 @@
         <v>223</v>
       </c>
       <c r="B52" t="s">
-        <v>364</v>
+        <v>228</v>
       </c>
       <c r="C52" t="s">
         <v>222</v>
@@ -16963,7 +16951,7 @@
         <v>112</v>
       </c>
       <c r="E52" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="53">
@@ -16971,7 +16959,7 @@
         <v>223</v>
       </c>
       <c r="B53" t="s">
-        <v>364</v>
+        <v>228</v>
       </c>
       <c r="C53" t="s">
         <v>222</v>
@@ -17022,7 +17010,7 @@
         <v>223</v>
       </c>
       <c r="B56" t="s">
-        <v>363</v>
+        <v>231</v>
       </c>
       <c r="C56" t="s">
         <v>209</v>
@@ -17039,7 +17027,7 @@
         <v>223</v>
       </c>
       <c r="B57" t="s">
-        <v>363</v>
+        <v>231</v>
       </c>
       <c r="C57" t="s">
         <v>209</v>
@@ -17056,7 +17044,7 @@
         <v>223</v>
       </c>
       <c r="B58" t="s">
-        <v>363</v>
+        <v>231</v>
       </c>
       <c r="C58" t="s">
         <v>209</v>
@@ -17073,7 +17061,7 @@
         <v>223</v>
       </c>
       <c r="B59" t="s">
-        <v>363</v>
+        <v>231</v>
       </c>
       <c r="C59" t="s">
         <v>209</v>
@@ -17090,7 +17078,7 @@
         <v>223</v>
       </c>
       <c r="B60" t="s">
-        <v>363</v>
+        <v>231</v>
       </c>
       <c r="C60" t="s">
         <v>209</v>
@@ -17107,7 +17095,7 @@
         <v>223</v>
       </c>
       <c r="B61" t="s">
-        <v>363</v>
+        <v>231</v>
       </c>
       <c r="C61" t="s">
         <v>209</v>
@@ -17124,7 +17112,7 @@
         <v>223</v>
       </c>
       <c r="B62" t="s">
-        <v>363</v>
+        <v>231</v>
       </c>
       <c r="C62" t="s">
         <v>209</v>
@@ -17141,7 +17129,7 @@
         <v>223</v>
       </c>
       <c r="B63" t="s">
-        <v>363</v>
+        <v>231</v>
       </c>
       <c r="C63" t="s">
         <v>209</v>
@@ -17158,7 +17146,7 @@
         <v>223</v>
       </c>
       <c r="B64" t="s">
-        <v>363</v>
+        <v>231</v>
       </c>
       <c r="C64" t="s">
         <v>209</v>
@@ -17175,7 +17163,7 @@
         <v>223</v>
       </c>
       <c r="B65" t="s">
-        <v>363</v>
+        <v>231</v>
       </c>
       <c r="C65" t="s">
         <v>209</v>
@@ -17491,10 +17479,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C1" t="s">
         <v>358</v>
@@ -17568,7 +17556,7 @@
         <v>240</v>
       </c>
       <c r="D5" t="s">
-        <v>365</v>
+        <v>227</v>
       </c>
       <c r="E5" t="s">
         <v>361</v>
@@ -17622,7 +17610,7 @@
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9">
@@ -17707,7 +17695,7 @@
         <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14">
@@ -18608,7 +18596,7 @@
         <v>135</v>
       </c>
       <c r="E66" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="67">
@@ -18870,10 +18858,10 @@
         <v>357</v>
       </c>
       <c r="C1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E1" t="s">
         <v>360</v>
@@ -18894,16 +18882,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1" t="s">
         <v>367</v>
       </c>
-      <c r="B1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C1" t="s">
-        <v>371</v>
-      </c>
       <c r="D1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E1" t="s">
         <v>360</v>
@@ -18933,7 +18921,7 @@
         <v>358</v>
       </c>
       <c r="D1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E1" t="s">
         <v>360</v>
@@ -18954,16 +18942,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C1" t="s">
         <v>358</v>
       </c>
       <c r="D1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E1" t="s">
         <v>360</v>
